--- a/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>688351</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>652619</v>
+        <v>654055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>729165</v>
+        <v>728463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4979523843274054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4721042749719515</v>
+        <v>0.4731429846210478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5274770317058759</v>
+        <v>0.5269694008284938</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>694012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>653198</v>
+        <v>653900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>729744</v>
+        <v>728308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5020476156725947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4725229682941241</v>
+        <v>0.4730305991715063</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5278957250280485</v>
+        <v>0.5268570153789519</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>968393</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>923203</v>
+        <v>925460</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1017108</v>
+        <v>1013066</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5017078739427028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4782957327252167</v>
+        <v>0.4794649805451577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5269460106240712</v>
+        <v>0.5248519778140076</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>961800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>913085</v>
+        <v>917127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1006990</v>
+        <v>1004733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4982921260572972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4730539893759287</v>
+        <v>0.4751480221859924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5217042672747831</v>
+        <v>0.5205350194548423</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>683841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>645018</v>
+        <v>648634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>719026</v>
+        <v>724022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5019569572355269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4734599653751776</v>
+        <v>0.476114133434952</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5277833732806757</v>
+        <v>0.5314505321822365</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>678509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643324</v>
+        <v>638328</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>717332</v>
+        <v>713716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4980430427644731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4722166267193243</v>
+        <v>0.4685494678177635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5265400346248225</v>
+        <v>0.523885866565048</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>1038612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>994065</v>
+        <v>992181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1080238</v>
+        <v>1083767</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5243306359084415</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5018418085715554</v>
+        <v>0.5008903496552893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.545345014238772</v>
+        <v>0.5471266979244016</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>942222</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>900596</v>
+        <v>897067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>986769</v>
+        <v>988653</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4756693640915584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4546549857612282</v>
+        <v>0.4528733020756006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4981581914284448</v>
+        <v>0.499109650344711</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>3379197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3297677</v>
+        <v>3299665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3459542</v>
+        <v>3457626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5077116877680198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4954635155670608</v>
+        <v>0.4957622900323103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5197831532487917</v>
+        <v>0.5194952187577856</v>
       </c>
     </row>
     <row r="17">
@@ -1565,19 +1565,19 @@
         <v>3276544</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3196199</v>
+        <v>3198115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3358064</v>
+        <v>3356076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4922883122319802</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4802168467512084</v>
+        <v>0.4805047812422146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5045364844329393</v>
+        <v>0.5042377099676898</v>
       </c>
     </row>
     <row r="18">
@@ -1935,19 +1935,19 @@
         <v>697050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>661801</v>
+        <v>657075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>735587</v>
+        <v>734915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4977083568289986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4725399560657783</v>
+        <v>0.469165147027669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5252243779439898</v>
+        <v>0.5247444786295731</v>
       </c>
     </row>
     <row r="5">
@@ -1990,19 +1990,19 @@
         <v>703469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>664932</v>
+        <v>665604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>738718</v>
+        <v>743444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5022916431710014</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4747756220560102</v>
+        <v>0.4752555213704269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5274600439342217</v>
+        <v>0.530834852972331</v>
       </c>
     </row>
     <row r="6">
@@ -2120,19 +2120,19 @@
         <v>1032184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>982458</v>
+        <v>984966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1080796</v>
+        <v>1079009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5034721867940152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4792170306408611</v>
+        <v>0.480440341252913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5271840268295862</v>
+        <v>0.5263120951990683</v>
       </c>
     </row>
     <row r="8">
@@ -2175,19 +2175,19 @@
         <v>1017947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>969335</v>
+        <v>971122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1067673</v>
+        <v>1065165</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4965278132059848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4728159731704139</v>
+        <v>0.4736879048009316</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5207829693591389</v>
+        <v>0.519559658747087</v>
       </c>
     </row>
     <row r="9">
@@ -2305,19 +2305,19 @@
         <v>777174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>738054</v>
+        <v>738989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>819708</v>
+        <v>819059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5063691445424391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4808802313884307</v>
+        <v>0.4814898149170742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5340822085759742</v>
+        <v>0.5336596814096523</v>
       </c>
     </row>
     <row r="11">
@@ -2360,19 +2360,19 @@
         <v>757623</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>715089</v>
+        <v>715738</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>796743</v>
+        <v>795808</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4936308554575609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4659177914240257</v>
+        <v>0.4663403185903477</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5191197686115692</v>
+        <v>0.5185101850829258</v>
       </c>
     </row>
     <row r="12">
@@ -2490,19 +2490,19 @@
         <v>1051901</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1006072</v>
+        <v>1011650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1099529</v>
+        <v>1101980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5260450922430159</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5031266818191655</v>
+        <v>0.5059160788307087</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5498632982672422</v>
+        <v>0.5510891785661924</v>
       </c>
     </row>
     <row r="14">
@@ -2545,19 +2545,19 @@
         <v>947739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>900111</v>
+        <v>897660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993568</v>
+        <v>987990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4739549077569841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4501367017327574</v>
+        <v>0.4489108214338076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4968733181808345</v>
+        <v>0.4940839211692913</v>
       </c>
     </row>
     <row r="15">
@@ -2675,19 +2675,19 @@
         <v>3558309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3462218</v>
+        <v>3478964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3642068</v>
+        <v>3642454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5094150731727236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4956585206282267</v>
+        <v>0.4980558681132075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5214062222709707</v>
+        <v>0.521461438052251</v>
       </c>
     </row>
     <row r="17">
@@ -2730,19 +2730,19 @@
         <v>3426779</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3343020</v>
+        <v>3342634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3522870</v>
+        <v>3506124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4905849268272763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4785937777290297</v>
+        <v>0.478538561947749</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5043414793717736</v>
+        <v>0.5019441318867925</v>
       </c>
     </row>
     <row r="18">
@@ -3100,19 +3100,19 @@
         <v>672839</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>636524</v>
+        <v>631536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>710280</v>
+        <v>709462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4992724305429083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4723255831621902</v>
+        <v>0.468623784732446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5270552757418659</v>
+        <v>0.526448463712375</v>
       </c>
     </row>
     <row r="5">
@@ -3155,19 +3155,19 @@
         <v>674800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>637359</v>
+        <v>638177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>711115</v>
+        <v>716103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5007275694570916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4729447242581341</v>
+        <v>0.4735515362876253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5276744168378098</v>
+        <v>0.531376215267554</v>
       </c>
     </row>
     <row r="6">
@@ -3285,19 +3285,19 @@
         <v>1042913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>996177</v>
+        <v>994353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1087218</v>
+        <v>1091658</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5049584984969524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4823298842313148</v>
+        <v>0.4814468851076083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5264102119612741</v>
+        <v>0.5285601295631291</v>
       </c>
     </row>
     <row r="8">
@@ -3340,19 +3340,19 @@
         <v>1022431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>978126</v>
+        <v>973686</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069167</v>
+        <v>1070991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4950415015030476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4735897880387258</v>
+        <v>0.4714398704368709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5176701157686847</v>
+        <v>0.5185531148923916</v>
       </c>
     </row>
     <row r="9">
@@ -3470,19 +3470,19 @@
         <v>785011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>741493</v>
+        <v>743887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>825479</v>
+        <v>822740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5082413697089458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4800667101905011</v>
+        <v>0.481616257922483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5344414796934545</v>
+        <v>0.5326687006425883</v>
       </c>
     </row>
     <row r="11">
@@ -3525,19 +3525,19 @@
         <v>759552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719084</v>
+        <v>721823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>803070</v>
+        <v>800676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4917586302910542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4655585203065456</v>
+        <v>0.4673312993574115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5199332898094989</v>
+        <v>0.5183837420775169</v>
       </c>
     </row>
     <row r="12">
@@ -3655,19 +3655,19 @@
         <v>1043779</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1000971</v>
+        <v>990933</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1089031</v>
+        <v>1081406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.52680299476051</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5051976909151406</v>
+        <v>0.5001313228946257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5496422117273069</v>
+        <v>0.54579355128742</v>
       </c>
     </row>
     <row r="14">
@@ -3710,19 +3710,19 @@
         <v>937567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>892315</v>
+        <v>899940</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>980375</v>
+        <v>990413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4731970052394901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4503577882726931</v>
+        <v>0.4542064487125798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4948023090848596</v>
+        <v>0.4998686771053742</v>
       </c>
     </row>
     <row r="15">
@@ -3840,19 +3840,19 @@
         <v>3544542</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3460482</v>
+        <v>3462388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3629745</v>
+        <v>3621108</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5108224518013608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4987081308172479</v>
+        <v>0.4989827848924082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5231015572603268</v>
+        <v>0.5218568694383164</v>
       </c>
     </row>
     <row r="17">
@@ -3895,19 +3895,19 @@
         <v>3394350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3309147</v>
+        <v>3317784</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3478410</v>
+        <v>3476504</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4891775481986392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4768984427396732</v>
+        <v>0.4781431305616837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5012918691827519</v>
+        <v>0.501017215107592</v>
       </c>
     </row>
     <row r="18">
@@ -4265,19 +4265,19 @@
         <v>734180</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>699108</v>
+        <v>694693</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>769688</v>
+        <v>769358</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5152539022670234</v>
+        <v>0.5152539022670235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4906401877581275</v>
+        <v>0.4875418532075418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5401737397762391</v>
+        <v>0.5399426548830123</v>
       </c>
     </row>
     <row r="5">
@@ -4320,19 +4320,19 @@
         <v>690709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>655201</v>
+        <v>655531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>725781</v>
+        <v>730196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4847460977329766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.459826260223761</v>
+        <v>0.4600573451169876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5093598122418724</v>
+        <v>0.5124581467924583</v>
       </c>
     </row>
     <row r="6">
@@ -4450,19 +4450,19 @@
         <v>1071474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1024468</v>
+        <v>1020868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1118728</v>
+        <v>1115914</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.505319102234123</v>
+        <v>0.5053191022341231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4831506240721211</v>
+        <v>0.4814526689035936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5276045172051904</v>
+        <v>0.5262773531443008</v>
       </c>
     </row>
     <row r="8">
@@ -4505,19 +4505,19 @@
         <v>1048917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001663</v>
+        <v>1004477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1095923</v>
+        <v>1099523</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4946808977658768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4723954827948095</v>
+        <v>0.4737226468556994</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5168493759278786</v>
+        <v>0.5185473310964064</v>
       </c>
     </row>
     <row r="9">
@@ -4635,19 +4635,19 @@
         <v>812259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>767150</v>
+        <v>768901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>856605</v>
+        <v>853099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5028432836581649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4749178270046919</v>
+        <v>0.4760017895623316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5302965474758413</v>
+        <v>0.5281263947738337</v>
       </c>
     </row>
     <row r="11">
@@ -4690,19 +4690,19 @@
         <v>803073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>758727</v>
+        <v>762233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>848182</v>
+        <v>846431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4971567163418351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.469703452524159</v>
+        <v>0.4718736052261662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5250821729953081</v>
+        <v>0.5239982104376683</v>
       </c>
     </row>
     <row r="12">
@@ -4820,19 +4820,19 @@
         <v>1119042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1076372</v>
+        <v>1074824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1161896</v>
+        <v>1168044</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5305767716730164</v>
+        <v>0.5305767716730163</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5103457650461818</v>
+        <v>0.509611736975594</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5508956508837497</v>
+        <v>0.5538105874368735</v>
       </c>
     </row>
     <row r="14">
@@ -4875,19 +4875,19 @@
         <v>990062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>947208</v>
+        <v>941060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1032732</v>
+        <v>1034280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4694232283269837</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4491043491162504</v>
+        <v>0.4461894125631266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4896542349538183</v>
+        <v>0.4903882630244059</v>
       </c>
     </row>
     <row r="15">
@@ -5005,19 +5005,19 @@
         <v>3736954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3655039</v>
+        <v>3650448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3832383</v>
+        <v>3818964</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5140440325123284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5027759957451888</v>
+        <v>0.5021445456008113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5271709225496298</v>
+        <v>0.5253250457050592</v>
       </c>
     </row>
     <row r="17">
@@ -5060,19 +5060,19 @@
         <v>3532762</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3437333</v>
+        <v>3450752</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3614677</v>
+        <v>3619268</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4859559674876716</v>
+        <v>0.4859559674876714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4728290774503703</v>
+        <v>0.4746749542949408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4972240042548114</v>
+        <v>0.4978554543991888</v>
       </c>
     </row>
     <row r="18">
